--- a/master/DTW数据分析.xlsx
+++ b/master/DTW数据分析.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7D5E2832-2589-4963-99CE-1BA62F5505B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EDC9276E-205A-4B59-B70C-22D6773DB3BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,389 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$8:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BFC-4295-AC22-0A1E8790E092}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488838936"/>
+        <c:axId val="488834344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488838936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488834344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488834344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488838936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1125,20 +1507,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638381</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>75372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409781</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103947</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1166,401 +2064,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>472108</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>115128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>496956</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接连接符 3">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07EFC86B-AB4B-4DBF-B56E-5DEF8D96DF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3224F80-C587-4844-924F-9E0C0796FB37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3909391" y="3048000"/>
-          <a:ext cx="24848" cy="132522"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>480391</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>372718</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直接连接符 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C767A3D2-BC96-4DBC-95EA-625DBE66A868}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3917674" y="2940326"/>
-          <a:ext cx="579783" cy="99391"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314739</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直接连接符 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E7C36F-7BF0-4FC5-9FED-82F9878D889D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3942522" y="3081130"/>
-          <a:ext cx="1184413" cy="240196"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>389283</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直接连接符 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F08A94F-600E-408F-8BC2-9998DA7E47E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4514022" y="1929848"/>
-          <a:ext cx="1184413" cy="530087"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91108</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直接连接符 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971BE17A-EF21-446C-92CA-86C28BB269E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5110370" y="2045804"/>
-          <a:ext cx="1167847" cy="248479"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91108</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接连接符 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE9F016-90D8-4C0D-9DE6-F72F0E588BD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5690152" y="2054087"/>
-          <a:ext cx="588065" cy="231913"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>115956</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91108</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接连接符 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7A408F-422A-4859-9803-4C62A3F2F2B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6269935" y="2302565"/>
-          <a:ext cx="8282" cy="530087"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接连接符 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E5A0E0-3CEB-4890-BB3B-A9B3D3B83F5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6261652" y="2310848"/>
-          <a:ext cx="621196" cy="770282"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1829,10 +2363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1910,6 +2444,86 @@
       </c>
       <c r="C6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
